--- a/Excel reports/aapl_raw_dataset.xlsx
+++ b/Excel reports/aapl_raw_dataset.xlsx
@@ -493,7 +493,7 @@
         <v>74.35749816894531</v>
       </c>
       <c r="F2" t="n">
-        <v>72.96721649169922</v>
+        <v>72.96720886230469</v>
       </c>
       <c r="G2" t="n">
         <v>382608800</v>
@@ -516,7 +516,7 @@
         <v>77.58249664306641</v>
       </c>
       <c r="F3" t="n">
-        <v>76.13191986083984</v>
+        <v>76.13191223144531</v>
       </c>
       <c r="G3" t="n">
         <v>670091600</v>
@@ -585,7 +585,7 @@
         <v>77.37750244140625</v>
       </c>
       <c r="F6" t="n">
-        <v>75.93073272705078</v>
+        <v>75.93074035644531</v>
       </c>
       <c r="G6" t="n">
         <v>866734800</v>
@@ -665,7 +665,7 @@
         <v>78.26249694824219</v>
       </c>
       <c r="F10" t="n">
-        <v>76.98146820068359</v>
+        <v>76.98146057128906</v>
       </c>
       <c r="G10" t="n">
         <v>476635200</v>
@@ -688,7 +688,7 @@
         <v>68.33999633789062</v>
       </c>
       <c r="F11" t="n">
-        <v>67.22138977050781</v>
+        <v>67.22138214111328</v>
       </c>
       <c r="G11" t="n">
         <v>1398039200</v>
@@ -711,7 +711,7 @@
         <v>72.25749969482422</v>
       </c>
       <c r="F12" t="n">
-        <v>71.07476043701172</v>
+        <v>71.07474517822266</v>
       </c>
       <c r="G12" t="n">
         <v>1293800800</v>
@@ -780,7 +780,7 @@
         <v>61.93500137329102</v>
       </c>
       <c r="F15" t="n">
-        <v>60.92123031616211</v>
+        <v>60.92122650146484</v>
       </c>
       <c r="G15" t="n">
         <v>1384190000</v>
@@ -803,7 +803,7 @@
         <v>60.35250091552734</v>
       </c>
       <c r="F16" t="n">
-        <v>59.36462783813477</v>
+        <v>59.36463165283203</v>
       </c>
       <c r="G16" t="n">
         <v>837010800</v>
@@ -849,7 +849,7 @@
         <v>70.69999694824219</v>
       </c>
       <c r="F18" t="n">
-        <v>69.54273986816406</v>
+        <v>69.54276275634766</v>
       </c>
       <c r="G18" t="n">
         <v>829547200</v>
@@ -895,7 +895,7 @@
         <v>72.26750183105469</v>
       </c>
       <c r="F20" t="n">
-        <v>71.08460235595703</v>
+        <v>71.08461761474609</v>
       </c>
       <c r="G20" t="n">
         <v>790054000</v>
@@ -918,7 +918,7 @@
         <v>77.53250122070312</v>
       </c>
       <c r="F21" t="n">
-        <v>76.26340484619141</v>
+        <v>76.26342010498047</v>
       </c>
       <c r="G21" t="n">
         <v>672706400</v>
@@ -952,7 +952,7 @@
         <v>76.92749786376953</v>
       </c>
       <c r="F23" t="n">
-        <v>75.87314605712891</v>
+        <v>75.87316131591797</v>
       </c>
       <c r="G23" t="n">
         <v>834147600</v>
@@ -975,7 +975,7 @@
         <v>79.72250366210938</v>
       </c>
       <c r="F24" t="n">
-        <v>78.62985229492188</v>
+        <v>78.62984466552734</v>
       </c>
       <c r="G24" t="n">
         <v>532904800</v>
@@ -998,7 +998,7 @@
         <v>79.48500061035156</v>
       </c>
       <c r="F25" t="n">
-        <v>78.39560699462891</v>
+        <v>78.39559173583984</v>
       </c>
       <c r="G25" t="n">
         <v>525560400</v>
@@ -1021,7 +1021,7 @@
         <v>82.875</v>
       </c>
       <c r="F26" t="n">
-        <v>81.73914337158203</v>
+        <v>81.73912811279297</v>
       </c>
       <c r="G26" t="n">
         <v>497736000</v>
@@ -1044,7 +1044,7 @@
         <v>84.69999694824219</v>
       </c>
       <c r="F27" t="n">
-        <v>83.53912353515625</v>
+        <v>83.53911590576172</v>
       </c>
       <c r="G27" t="n">
         <v>811826800</v>
@@ -1090,7 +1090,7 @@
         <v>88.40750122070312</v>
       </c>
       <c r="F29" t="n">
-        <v>87.19581604003906</v>
+        <v>87.19582366943359</v>
       </c>
       <c r="G29" t="n">
         <v>883003200</v>
@@ -1113,7 +1113,7 @@
         <v>91.02749633789062</v>
       </c>
       <c r="F30" t="n">
-        <v>89.7799072265625</v>
+        <v>89.77989959716797</v>
       </c>
       <c r="G30" t="n">
         <v>495648000</v>
@@ -1136,7 +1136,7 @@
         <v>95.91999816894531</v>
       </c>
       <c r="F31" t="n">
-        <v>94.60533905029297</v>
+        <v>94.6053466796875</v>
       </c>
       <c r="G31" t="n">
         <v>564072000</v>
@@ -1228,7 +1228,7 @@
         <v>111.1125030517578</v>
       </c>
       <c r="F35" t="n">
-        <v>109.5896224975586</v>
+        <v>109.5896301269531</v>
       </c>
       <c r="G35" t="n">
         <v>1003474000</v>
@@ -1262,7 +1262,7 @@
         <v>114.9075012207031</v>
       </c>
       <c r="F37" t="n">
-        <v>113.5369567871094</v>
+        <v>113.5369491577148</v>
       </c>
       <c r="G37" t="n">
         <v>941551200</v>
@@ -1308,7 +1308,7 @@
         <v>124.807502746582</v>
       </c>
       <c r="F39" t="n">
-        <v>123.3188705444336</v>
+        <v>123.3188781738281</v>
       </c>
       <c r="G39" t="n">
         <v>1063638000</v>
@@ -1331,7 +1331,7 @@
         <v>120.9599990844727</v>
       </c>
       <c r="F40" t="n">
-        <v>119.5172576904297</v>
+        <v>119.5172424316406</v>
       </c>
       <c r="G40" t="n">
         <v>1167976600</v>
@@ -1354,7 +1354,7 @@
         <v>112</v>
       </c>
       <c r="F41" t="n">
-        <v>110.6641235351562</v>
+        <v>110.6641311645508</v>
       </c>
       <c r="G41" t="n">
         <v>771441800</v>
@@ -1377,7 +1377,7 @@
         <v>106.8399963378906</v>
       </c>
       <c r="F42" t="n">
-        <v>105.5656585693359</v>
+        <v>105.5656661987305</v>
       </c>
       <c r="G42" t="n">
         <v>944587000</v>
@@ -1469,7 +1469,7 @@
         <v>119.0199966430664</v>
       </c>
       <c r="F46" t="n">
-        <v>117.6003952026367</v>
+        <v>117.6003799438477</v>
       </c>
       <c r="G46" t="n">
         <v>881222300</v>
@@ -1492,7 +1492,7 @@
         <v>115.0400009155273</v>
       </c>
       <c r="F47" t="n">
-        <v>113.6678695678711</v>
+        <v>113.6678619384766</v>
       </c>
       <c r="G47" t="n">
         <v>519569600</v>
@@ -1515,7 +1515,7 @@
         <v>108.8600006103516</v>
       </c>
       <c r="F48" t="n">
-        <v>107.5615844726562</v>
+        <v>107.5615768432617</v>
       </c>
       <c r="G48" t="n">
         <v>684467100</v>
@@ -1538,7 +1538,7 @@
         <v>118.6900024414062</v>
       </c>
       <c r="F49" t="n">
-        <v>117.2743301391602</v>
+        <v>117.2743377685547</v>
       </c>
       <c r="G49" t="n">
         <v>609571800</v>
@@ -1595,7 +1595,7 @@
         <v>117.3399963378906</v>
       </c>
       <c r="F52" t="n">
-        <v>116.1404571533203</v>
+        <v>116.1404495239258</v>
       </c>
       <c r="G52" t="n">
         <v>389493400</v>
@@ -1641,7 +1641,7 @@
         <v>122.25</v>
       </c>
       <c r="F54" t="n">
-        <v>121.0002746582031</v>
+        <v>121.0002593994141</v>
       </c>
       <c r="G54" t="n">
         <v>543370600</v>
@@ -1687,7 +1687,7 @@
         <v>126.6600036621094</v>
       </c>
       <c r="F56" t="n">
-        <v>125.3651962280273</v>
+        <v>125.3651809692383</v>
       </c>
       <c r="G56" t="n">
         <v>621538100</v>
@@ -1710,7 +1710,7 @@
         <v>131.9700012207031</v>
       </c>
       <c r="F57" t="n">
-        <v>130.6209106445312</v>
+        <v>130.6208953857422</v>
       </c>
       <c r="G57" t="n">
         <v>433310200</v>
@@ -1733,7 +1733,7 @@
         <v>132.6900024414062</v>
       </c>
       <c r="F58" t="n">
-        <v>131.3335266113281</v>
+        <v>131.3335418701172</v>
       </c>
       <c r="G58" t="n">
         <v>441102200</v>
@@ -1779,7 +1779,7 @@
         <v>127.1399993896484</v>
       </c>
       <c r="F60" t="n">
-        <v>125.8402709960938</v>
+        <v>125.8402786254883</v>
       </c>
       <c r="G60" t="n">
         <v>482792700</v>
@@ -1848,7 +1848,7 @@
         <v>136.7599945068359</v>
       </c>
       <c r="F63" t="n">
-        <v>135.3619079589844</v>
+        <v>135.3619384765625</v>
       </c>
       <c r="G63" t="n">
         <v>439303000</v>
@@ -1882,7 +1882,7 @@
         <v>135.3699951171875</v>
       </c>
       <c r="F65" t="n">
-        <v>134.1863403320312</v>
+        <v>134.1863708496094</v>
       </c>
       <c r="G65" t="n">
         <v>345543100</v>
@@ -1951,7 +1951,7 @@
         <v>121.4199981689453</v>
       </c>
       <c r="F68" t="n">
-        <v>120.3583221435547</v>
+        <v>120.3583297729492</v>
       </c>
       <c r="G68" t="n">
         <v>663456700</v>
@@ -1997,7 +1997,7 @@
         <v>119.9899978637695</v>
       </c>
       <c r="F70" t="n">
-        <v>118.9408340454102</v>
+        <v>118.9408416748047</v>
       </c>
       <c r="G70" t="n">
         <v>626343500</v>
@@ -2020,7 +2020,7 @@
         <v>121.2099990844727</v>
       </c>
       <c r="F71" t="n">
-        <v>120.1501770019531</v>
+        <v>120.1501693725586</v>
       </c>
       <c r="G71" t="n">
         <v>488825800</v>
@@ -2043,7 +2043,7 @@
         <v>123</v>
       </c>
       <c r="F72" t="n">
-        <v>121.9245223999023</v>
+        <v>121.9245147705078</v>
       </c>
       <c r="G72" t="n">
         <v>359904000</v>
@@ -2066,7 +2066,7 @@
         <v>133</v>
       </c>
       <c r="F73" t="n">
-        <v>131.8370819091797</v>
+        <v>131.8370971679688</v>
       </c>
       <c r="G73" t="n">
         <v>447820500</v>
@@ -2135,7 +2135,7 @@
         <v>131.4600067138672</v>
       </c>
       <c r="F76" t="n">
-        <v>130.3105621337891</v>
+        <v>130.310546875</v>
       </c>
       <c r="G76" t="n">
         <v>501621500</v>
@@ -2215,7 +2215,7 @@
         <v>125.4300003051758</v>
       </c>
       <c r="F80" t="n">
-        <v>124.5444564819336</v>
+        <v>124.5444641113281</v>
       </c>
       <c r="G80" t="n">
         <v>386352000</v>
@@ -2238,7 +2238,7 @@
         <v>124.6100006103516</v>
       </c>
       <c r="F81" t="n">
-        <v>123.7302474975586</v>
+        <v>123.7302551269531</v>
       </c>
       <c r="G81" t="n">
         <v>357615000</v>
@@ -2261,7 +2261,7 @@
         <v>125.8899993896484</v>
       </c>
       <c r="F82" t="n">
-        <v>125.0012130737305</v>
+        <v>125.001220703125</v>
       </c>
       <c r="G82" t="n">
         <v>278314500</v>
@@ -2307,7 +2307,7 @@
         <v>130.4600067138672</v>
       </c>
       <c r="F84" t="n">
-        <v>129.5389709472656</v>
+        <v>129.5389556884766</v>
       </c>
       <c r="G84" t="n">
         <v>457142800</v>
@@ -2330,7 +2330,7 @@
         <v>133.1100006103516</v>
       </c>
       <c r="F85" t="n">
-        <v>132.1702270507812</v>
+        <v>132.1702575683594</v>
       </c>
       <c r="G85" t="n">
         <v>354155800</v>
@@ -2445,7 +2445,7 @@
         <v>145.8600006103516</v>
       </c>
       <c r="F90" t="n">
-        <v>144.8302154541016</v>
+        <v>144.8302307128906</v>
       </c>
       <c r="G90" t="n">
         <v>423324000</v>
@@ -2548,7 +2548,7 @@
         <v>148.6000061035156</v>
       </c>
       <c r="F95" t="n">
-        <v>147.7719573974609</v>
+        <v>147.7719421386719</v>
       </c>
       <c r="G95" t="n">
         <v>272129100</v>
@@ -2640,7 +2640,7 @@
         <v>146.9199981689453</v>
       </c>
       <c r="F99" t="n">
-        <v>146.101318359375</v>
+        <v>146.1013031005859</v>
       </c>
       <c r="G99" t="n">
         <v>394033300</v>
@@ -2732,7 +2732,7 @@
         <v>148.6900024414062</v>
       </c>
       <c r="F103" t="n">
-        <v>147.8614501953125</v>
+        <v>147.8614654541016</v>
       </c>
       <c r="G103" t="n">
         <v>340691300</v>
@@ -2755,7 +2755,7 @@
         <v>149.8000030517578</v>
       </c>
       <c r="F104" t="n">
-        <v>148.9652709960938</v>
+        <v>148.9652557373047</v>
       </c>
       <c r="G104" t="n">
         <v>392740000</v>
@@ -2778,7 +2778,7 @@
         <v>151.2799987792969</v>
       </c>
       <c r="F105" t="n">
-        <v>150.4370269775391</v>
+        <v>150.43701171875</v>
       </c>
       <c r="G105" t="n">
         <v>324080300</v>
@@ -2881,7 +2881,7 @@
         <v>161.8399963378906</v>
       </c>
       <c r="F110" t="n">
-        <v>161.1730651855469</v>
+        <v>161.1730499267578</v>
       </c>
       <c r="G110" t="n">
         <v>669611100</v>
@@ -2904,7 +2904,7 @@
         <v>179.4499969482422</v>
       </c>
       <c r="F111" t="n">
-        <v>178.7104797363281</v>
+        <v>178.7104949951172</v>
       </c>
       <c r="G111" t="n">
         <v>569227700</v>
@@ -3065,7 +3065,7 @@
         <v>170.3300018310547</v>
       </c>
       <c r="F118" t="n">
-        <v>169.6280822753906</v>
+        <v>169.6280670166016</v>
       </c>
       <c r="G118" t="n">
         <v>688258600</v>
@@ -3237,7 +3237,7 @@
         <v>163.9799957275391</v>
       </c>
       <c r="F126" t="n">
-        <v>163.5122833251953</v>
+        <v>163.5122985839844</v>
       </c>
       <c r="G126" t="n">
         <v>503123700</v>
@@ -3283,7 +3283,7 @@
         <v>174.3099975585938</v>
       </c>
       <c r="F128" t="n">
-        <v>173.8128356933594</v>
+        <v>173.8128204345703</v>
       </c>
       <c r="G128" t="n">
         <v>465395100</v>
@@ -3306,7 +3306,7 @@
         <v>170.0899963378906</v>
       </c>
       <c r="F129" t="n">
-        <v>169.6048736572266</v>
+        <v>169.6048583984375</v>
       </c>
       <c r="G129" t="n">
         <v>393099200</v>
